--- a/results/FrequencyTables/25752527_gP24-T2.xlsx
+++ b/results/FrequencyTables/25752527_gP24-T2.xlsx
@@ -465,73 +465,73 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>5.99376648285783e-05</v>
       </c>
       <c r="C2">
-        <v>0.99</v>
+        <v>0.999280748022057</v>
       </c>
       <c r="D2">
-        <v>0.09</v>
+        <v>0.101474466554783</v>
       </c>
       <c r="E2">
-        <v>0.85</v>
+        <v>0.974526492447854</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>5.99376648285783e-05</v>
       </c>
       <c r="G2">
-        <v>0.04</v>
+        <v>0.0788180292495804</v>
       </c>
       <c r="H2">
-        <v>0.99</v>
+        <v>0.997003116758571</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.000419563653800048</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.976264684727883</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.00173819228002877</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.999640374011029</v>
       </c>
       <c r="M2">
-        <v>0.84</v>
+        <v>0.867597698393671</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>5.99376648285783e-05</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.983217453847998</v>
       </c>
       <c r="Q2">
-        <v>1</v>
+        <v>0.9991608726924</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>0.000959002637257252</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.00743227043874371</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.000239750659314313</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>0.000299688324142891</v>
       </c>
       <c r="V2">
-        <v>0.99</v>
+        <v>0.991668664588828</v>
       </c>
       <c r="W2">
-        <v>0.99</v>
+        <v>0.999100935027571</v>
       </c>
       <c r="X2">
-        <v>0.01</v>
+        <v>0.000239750659314313</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -539,25 +539,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.999820187005514</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.000179812994485735</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>5.99376648285783e-05</v>
       </c>
       <c r="E3">
-        <v>0.13</v>
+        <v>0.0119275953008871</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.000179812994485735</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.000239750659314313</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.00215775593382882</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -572,19 +572,19 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.0364421002157756</v>
       </c>
       <c r="N3">
-        <v>1</v>
+        <v>0.999640374011029</v>
       </c>
       <c r="O3">
         <v>1</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.00179812994485735</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>0.000419563653800048</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -596,16 +596,16 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>0.000119875329657157</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>0.000239750659314313</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>5.99376648285783e-05</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>0.000119875329657157</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -616,70 +616,70 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.01</v>
+        <v>0.00035962598897147</v>
       </c>
       <c r="D4">
-        <v>0.91</v>
+        <v>0.895288899544474</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.00935027571325821</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>0.000239750659314313</v>
       </c>
       <c r="G4">
-        <v>0.96</v>
+        <v>0.918245025173819</v>
       </c>
       <c r="H4">
-        <v>0.01</v>
+        <v>0.000539438983457205</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.999040997362743</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.0224166866458883</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0.998261807719971</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.000299688324142891</v>
       </c>
       <c r="M4">
-        <v>0.14</v>
+        <v>0.0837329177655239</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>5.99376648285783e-05</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.00377607288420043</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>0.000179812994485735</v>
       </c>
       <c r="R4">
-        <v>1</v>
+        <v>0.998981059697914</v>
       </c>
       <c r="S4">
-        <v>1</v>
+        <v>0.992148165907456</v>
       </c>
       <c r="T4">
-        <v>1</v>
+        <v>0.999760249340686</v>
       </c>
       <c r="U4">
-        <v>1</v>
+        <v>0.9995804363462</v>
       </c>
       <c r="V4">
-        <v>0.01</v>
+        <v>0.00719251977942939</v>
       </c>
       <c r="W4">
-        <v>0.01</v>
+        <v>0.000839127307600096</v>
       </c>
       <c r="X4">
-        <v>0.99</v>
+        <v>0.9995804363462</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -687,55 +687,55 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>5.99376648285783e-05</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.000179812994485735</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>5.99376648285783e-05</v>
       </c>
       <c r="E5">
-        <v>0.02</v>
+        <v>0.00341644689522896</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.999400623351714</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.00035962598897147</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.000179812994485735</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.000299688324142891</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>5.99376648285783e-05</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>5.99376648285783e-05</v>
       </c>
       <c r="M5">
-        <v>0.02</v>
+        <v>0.00923040038360106</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.000239750659314313</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.0100095900263726</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>0.000119875329657157</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>5.99376648285783e-05</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -747,13 +747,13 @@
         <v>0</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>0.000179812994485735</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>5.99376648285783e-05</v>
       </c>
     </row>
   </sheetData>
